--- a/biology/Botanique/Flore_des_dunes_d'Aquitaine/Flore_des_dunes_d'Aquitaine.xlsx
+++ b/biology/Botanique/Flore_des_dunes_d'Aquitaine/Flore_des_dunes_d'Aquitaine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Flore_des_dunes_d%27Aquitaine</t>
+          <t>Flore_des_dunes_d'Aquitaine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cordon dunaire des Landes de Gascogne est un biotope particulier, à relativement faible diversité botanique. Le tableau[1] suivant recense les espèces végétales qui vivent sur la frange littorale des départements de la Gironde et des Landes, classées de la plage à la forêt.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cordon dunaire des Landes de Gascogne est un biotope particulier, à relativement faible diversité botanique. Le tableau suivant recense les espèces végétales qui vivent sur la frange littorale des départements de la Gironde et des Landes, classées de la plage à la forêt.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Flore_des_dunes_d%27Aquitaine</t>
+          <t>Flore_des_dunes_d'Aquitaine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Le milieu</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La végétation est adaptée aux conditions naturelles difficiles qui y règnent : forte salinité, puissance du vent, impact des grains de sable, sol mouvant et minéral. Ces facteurs décroissent au fur et à mesure qu'on se déplace d'ouest en est, de la plage à la forêt, rendant possible une plus grande diversité d'espèces. On découpe artificiellement la zone en bandes parallèles à la plage :
 le haut de plage, riche en matière organique apportée par la mer et à très forte salinité : flore halo-nitrophile
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Flore_des_dunes_d%27Aquitaine</t>
+          <t>Flore_des_dunes_d'Aquitaine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,6 +562,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
